--- a/meeting/Team4_ProjectReport.xlsx
+++ b/meeting/Team4_ProjectReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaeKyo\Desktop\SWP391_FPT_miniproject\meeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEF5454-8BCF-49F7-8B01-6F6EA73B0469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EC8A89-E139-4B17-ABBE-033F522D2EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,19 @@
     <sheet name="ScreenFlow" sheetId="5" r:id="rId5"/>
     <sheet name="Screen Detail" sheetId="6" r:id="rId6"/>
     <sheet name="Class Diagarm" sheetId="7" r:id="rId7"/>
+    <sheet name="CoreFlow" sheetId="8" r:id="rId8"/>
+    <sheet name="Prototype Full" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mgfZR3oEsJ7XLx4htT63kA51bg8vA=="/>
     </ext>
@@ -31,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="193">
   <si>
     <t>#</t>
   </si>
@@ -623,6 +633,78 @@
 FE-12: The function of managing and tracking customers' online bookings.
 FE-13: Provide transaction contract information between Provider and Customer.
 FE-14: Provide tracking, update Bird'status on Transaction Detail</t>
+  </si>
+  <si>
+    <t>CoreFlow</t>
+  </si>
+  <si>
+    <t>Object: user access website, not login, select provider in "provider list" click on ProviderDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - select booking, input information, confim and click BookNow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - tracking bird information on TransactionDetail, pay by online, feedback on current Transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #HomePage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Provider List</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Provider Detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - input transaction_id, confirm by phone number  and access Transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #input information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Confirm Booking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Input Transaction_id (check phone number)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #bird status (information)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #current transaction(transaction detail)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #online payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #on-going feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #bill report on current transaction</t>
+  </si>
+  <si>
+    <t>Prototype Full</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Core Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Flowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #register</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #login</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #user profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #edit profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #expand time</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1431,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -5577,7 +5659,7 @@
   </sheetPr>
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A18" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
@@ -5617,7 +5699,7 @@
   </sheetPr>
   <dimension ref="A1:AC1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -37495,4 +37577,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AFD97D-DCF2-444A-B7AE-7B298761386A}">
+  <dimension ref="A2:C29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370C031D-E6CD-4D14-86E5-6C3E0ADC19D1}">
+  <dimension ref="A2:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>